--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1896906.460862674</v>
+        <v>2005978.102929692</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216497</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5434998.963601039</v>
+        <v>5937302.278106515</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>282.2216823531077</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>190.6822345651554</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -814,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>110.1684126278033</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
@@ -835,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,16 +876,16 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>163.6395778340017</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>410.1106214120837</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.1221594290542</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>65.96721912996259</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1102,7 +1104,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>105.6319392430749</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,7 +1119,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>213.9524923143556</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>227.2422339077174</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1303,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>52.51170991984812</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>35.20092700998642</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1379,16 +1381,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>186.7520388614008</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>167.0321597791023</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>108.3408915168847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1607,22 +1609,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>166.953924550727</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.57637241135472</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1828,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>52.00914065545663</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1901,13 +1903,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2002,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016089</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>130.9394714210089</v>
+        <v>174.9399834978622</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225638</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561545</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2239,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.1128884183135</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2478,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2488,10 +2490,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>35.47248331510205</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2722,13 +2724,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978661</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>112.1673564559252</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810092533</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2959,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>130.6556207749445</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3190,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>28.8556017839858</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3487,7 +3489,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>122.4914619056497</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>225.1454739790328</v>
@@ -3667,10 +3669,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>94.431236732152</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>18.05677735225717</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3743,7 +3745,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>194.3013490646852</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -3752,10 +3754,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3901,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>18.05677735225719</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>73.29899740799712</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3977,13 +3979,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>359.956196123799</v>
+        <v>431.5506869773002</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4037,13 +4039,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1786.86986531245</v>
+        <v>408.8145501306011</v>
       </c>
       <c r="C2" t="n">
-        <v>1348.727392495873</v>
+        <v>374.7124813544285</v>
       </c>
       <c r="D2" t="n">
-        <v>912.8176076703178</v>
+        <v>342.8431005692771</v>
       </c>
       <c r="E2" t="n">
-        <v>479.0428628286129</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>632.7278666362198</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>632.7278666362198</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>1477.116202953456</v>
       </c>
       <c r="U2" t="n">
-        <v>2410.838523748444</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>2410.838523748444</v>
+        <v>855.2769502042993</v>
       </c>
       <c r="W2" t="n">
-        <v>2410.023473199882</v>
+        <v>854.4618996557366</v>
       </c>
       <c r="X2" t="n">
-        <v>2217.4151554573</v>
+        <v>435.3194362350473</v>
       </c>
       <c r="Y2" t="n">
-        <v>2213.169435797358</v>
+        <v>431.0737165751048</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>2018.283117621067</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>2018.283117621067</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M3" t="n">
-        <v>2018.283117621067</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="N3" t="n">
-        <v>2018.283117621067</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.283117621067</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>2018.283117621067</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1043.799427915185</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="C4" t="n">
-        <v>871.2377163984103</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="D4" t="n">
-        <v>705.359723599933</v>
+        <v>539.3782919872998</v>
       </c>
       <c r="E4" t="n">
-        <v>535.6017198506702</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8946658124264</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>193.303390838254</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862856</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>509.954387939391</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>509.954387939391</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>930.0072868842942</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1349.676536110076</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2424.181380009883</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>2145.748379262988</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1980.45587640036</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W4" t="n">
-        <v>1708.429471986652</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="X4" t="n">
-        <v>1463.037717320064</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="Y4" t="n">
-        <v>1235.618046634173</v>
+        <v>705.2562847857771</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2078.225803160042</v>
+        <v>1379.443841960034</v>
       </c>
       <c r="C5" t="n">
-        <v>1640.083330343465</v>
+        <v>941.3013691434576</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.173545517909</v>
+        <v>909.4319883583062</v>
       </c>
       <c r="E5" t="n">
-        <v>770.3988006762045</v>
+        <v>475.6572435166014</v>
       </c>
       <c r="F5" t="n">
-        <v>342.5313710854123</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="H5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>714.2412710704069</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="M5" t="n">
-        <v>1179.226652594814</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="N5" t="n">
-        <v>1840.066707136593</v>
+        <v>557.7649106726439</v>
       </c>
       <c r="O5" t="n">
-        <v>2500.906761678371</v>
+        <v>1181.865694717422</v>
       </c>
       <c r="P5" t="n">
-        <v>2500.906761678371</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2437.967455657689</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="V5" t="n">
-        <v>2670.060826431428</v>
+        <v>2217.900228530727</v>
       </c>
       <c r="W5" t="n">
-        <v>2669.245775882865</v>
+        <v>2217.085177982165</v>
       </c>
       <c r="X5" t="n">
-        <v>2654.14371650258</v>
+        <v>1797.942714561475</v>
       </c>
       <c r="Y5" t="n">
-        <v>2504.525373644949</v>
+        <v>1793.696994901533</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326457</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>374.9907115556894</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>999.0914956004676</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>999.0914956004676</v>
       </c>
       <c r="M6" t="n">
-        <v>714.2412710704069</v>
+        <v>999.0914956004676</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>999.0914956004676</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>999.0914956004676</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>794.0196728252577</v>
+        <v>1030.246109079611</v>
       </c>
       <c r="C7" t="n">
-        <v>794.0196728252577</v>
+        <v>857.6843975628359</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947704</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068779</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748389</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255752</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413396</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639178</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.42655460952</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179224</v>
       </c>
       <c r="S7" t="n">
-        <v>2541.944076608442</v>
+        <v>2340.96013947722</v>
       </c>
       <c r="T7" t="n">
-        <v>2296.064630186897</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2017.631629440002</v>
+        <v>1816.647692308781</v>
       </c>
       <c r="V7" t="n">
-        <v>1730.676121310433</v>
+        <v>1529.692184179211</v>
       </c>
       <c r="W7" t="n">
-        <v>1458.649716896724</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="X7" t="n">
-        <v>1213.257962230137</v>
+        <v>1257.665779765503</v>
       </c>
       <c r="Y7" t="n">
-        <v>985.8382915442448</v>
+        <v>1030.246109079611</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>981.0148405224497</v>
+        <v>1052.900668210748</v>
       </c>
       <c r="C8" t="n">
-        <v>542.872367705873</v>
+        <v>1018.798599434575</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>986.9292186494238</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
         <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4832,22 +4834,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2449.993599304466</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2045.1381447155</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1815.600534707704</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y8" t="n">
-        <v>1407.314411007358</v>
+        <v>1479.200238695656</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>73.33088177303154</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="L9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="M9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="N9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="O9" t="n">
-        <v>397.8892067392439</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="P9" t="n">
-        <v>1058.729261281022</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>1019.910233398507</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>847.3485218817324</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>681.4705290832551</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>511.7125253339923</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>335.0054712957485</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2356.071333755254</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="V10" t="n">
-        <v>2069.115825625685</v>
+        <v>1956.566681883682</v>
       </c>
       <c r="W10" t="n">
-        <v>1797.089421211977</v>
+        <v>1684.540277469974</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1439.148522803386</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1211.728852117495</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1363.953402140615</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
-        <v>925.8109293240379</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>489.9011444984825</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E11" t="n">
-        <v>56.12639965677765</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F11" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1565.257001127664</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>1565.257001127664</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N11" t="n">
-        <v>1565.257001127664</v>
+        <v>3654.644638328873</v>
       </c>
       <c r="O11" t="n">
-        <v>1565.257001127664</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P11" t="n">
-        <v>2259.821196880288</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2617.681559746558</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2617.681559746558</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2198.539096325869</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1790.252972625522</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>366.8902486565477</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.454444409171</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.7195024811525</v>
+        <v>1036.216302815308</v>
       </c>
       <c r="C13" t="n">
-        <v>616.1577909643775</v>
+        <v>863.6545912985331</v>
       </c>
       <c r="D13" t="n">
-        <v>450.2797981659001</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>450.2797981659001</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2267.665194436029</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="U13" t="n">
-        <v>1989.232193689134</v>
+        <v>2259.828259430053</v>
       </c>
       <c r="V13" t="n">
-        <v>1702.276685559565</v>
+        <v>1972.872751300483</v>
       </c>
       <c r="W13" t="n">
-        <v>1430.250281145856</v>
+        <v>1700.846346886775</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.858526479269</v>
+        <v>1455.454592220187</v>
       </c>
       <c r="Y13" t="n">
-        <v>957.4388557933771</v>
+        <v>1228.034921534295</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1792.237621104268</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1354.095148287691</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>918.1853634621359</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>484.4106186204299</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.54318902963765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.54318902963765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.54318902963765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1185.945282862319</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1565.257001127664</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1565.257001127664</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>1565.257001127664</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1565.257001127664</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2259.821196880288</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2637.679655009865</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2637.679655009865</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2218.537191589176</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2218.537191589176</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>809.0580335016147</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>958.4775062304152</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>785.9157947136401</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D16" t="n">
-        <v>620.0378019151628</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E16" t="n">
-        <v>450.2797981659001</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1702.276685559565</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.250281145856</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1377.715795635294</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1150.296124949402</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5516,16 +5518,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5549,10 +5551,10 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
         <v>3363.485741837043</v>
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5650,22 +5652,22 @@
         <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736182</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>798.4343348736182</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>628.6763311243556</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876352</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134628</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5753,25 +5755,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>475.2748675296863</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>475.2748675296863</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>1632.322702740237</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>2758.053686176684</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
-        <v>4566.543227580387</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5783,19 +5785,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1008.757289365886</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y22" t="n">
-        <v>1200.575908084873</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5989,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
         <v>3007.131363532227</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>3184.458419759167</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>3018.58042696069</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>2848.822423211427</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>2672.115369173183</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>2636.284577945808</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>3376.277038478154</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6226,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2758.053686176683</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3738.23335274699</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
         <v>5113.04201353898</v>
@@ -6306,22 +6308,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>782.9943603411569</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="M27" t="n">
-        <v>782.9943603411569</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N27" t="n">
-        <v>782.9943603411569</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O27" t="n">
-        <v>782.9943603411569</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P27" t="n">
-        <v>1602.717526820355</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
         <v>1765.500601749588</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>1181.319000882666</v>
       </c>
       <c r="C28" t="n">
-        <v>982.1554751127505</v>
+        <v>1008.757289365891</v>
       </c>
       <c r="D28" t="n">
-        <v>816.2774823142732</v>
+        <v>842.8792965674136</v>
       </c>
       <c r="E28" t="n">
-        <v>646.5194785650106</v>
+        <v>673.1212928181508</v>
       </c>
       <c r="F28" t="n">
-        <v>469.8124245267668</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>304.2211495525945</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367841</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954132</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.557290287545</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601653</v>
       </c>
     </row>
     <row r="29">
@@ -6461,25 +6463,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>3572.656769371182</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q29" t="n">
         <v>5113.04201353898</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903908</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736157</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751384</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258757</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6625,46 +6627,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745614</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.04100375203</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005135</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.652494875566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461857</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.23433579527</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109378</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q32" t="n">
         <v>4943.887948785924</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>270.2186143064091</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>588.6280723679117</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>418.8700686186489</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>242.1630145804051</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>537.5155277236975</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M35" t="n">
-        <v>1694.563362934248</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2820.294346370695</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3800.474012941002</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M36" t="n">
-        <v>452.8828383974496</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N36" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O36" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7123,22 +7125,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M38" t="n">
-        <v>2093.658967439508</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N38" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J39" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1116.062450089081</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C40" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D40" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E40" t="n">
-        <v>462.7983383258798</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F40" t="n">
-        <v>286.091284287636</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G40" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H40" t="n">
-        <v>120.5000093134636</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7354,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1552.591825232939</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1114.449352416362</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>918.1853634621348</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>484.4106186204299</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>56.54318902963765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963765</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>1185.945282862319</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L41" t="n">
-        <v>1396.102936374607</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N41" t="n">
-        <v>1396.102936374607</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.102936374607</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.667132127231</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085826</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2806.319982838882</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2806.319982838882</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>2387.177519418193</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>1978.891395717847</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1649.251966351366</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>1542.795505188009</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>1447.705216334562</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>1353.584801661516</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>1270.200963277677</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>1184.815873543861</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>1143.080221360074</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>1169.143894520531</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>1493.702219486744</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>2148.408266112467</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L42" t="n">
-        <v>2148.408266112467</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M42" t="n">
-        <v>2148.408266112467</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.408266112467</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O42" t="n">
-        <v>2148.408266112467</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P42" t="n">
-        <v>2148.408266112467</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q42" t="n">
-        <v>2689.147204744543</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>2806.319982838882</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>2742.864545287266</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>2612.685901617867</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>2436.349354617836</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>2237.231836679835</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>2051.909082413029</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>1897.041646651909</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>1770.55586743113</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.4043931605562</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>656.8426816437811</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>656.8426816437811</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>487.0846778945184</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>310.3776238562747</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>144.7863488821023</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2577.32879694374</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2331.449350522195</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2053.016349775301</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1766.060841645731</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1494.034437232023</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1248.642682565435</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1021.223011879543</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1538.113932477856</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1538.113932477856</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1174.52181518109</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1174.52181518109</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>746.6543855902976</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>345.2565542135614</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K44" t="n">
-        <v>1185.945282862319</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L44" t="n">
-        <v>1880.509478614942</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M44" t="n">
-        <v>2090.667132127231</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N44" t="n">
-        <v>2090.667132127231</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O44" t="n">
-        <v>2090.667132127231</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.252755711921</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2327.030453028938</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1964.413502962764</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1964.413502962764</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1964.413502962764</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1964.413502962764</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1602.193383041247</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>906.6224367337088</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>734.0607252169337</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>568.1827324184565</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>398.4247286691938</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>221.71767463095</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2654.546840516893</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2408.667394095348</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2130.234393348453</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1843.278885218884</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1571.252480805175</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1325.860726138588</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.441055452696</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7988,16 +7990,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8155,7 +8157,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="M5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8292,25 +8294,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>57.24134923374049</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8453,13 +8455,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8468,7 +8470,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8526,13 +8528,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,28 +8692,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>383.1431497629751</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>287.5759351912247</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,28 +8929,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1431497629751</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>138.1004058270461</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9249,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,10 +9403,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9416,13 +9418,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9872,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>263.087760665011</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9890,10 +9892,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9954,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9972,7 +9974,7 @@
         <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10109,28 +10111,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>662.0994432140315</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.8626916697543</v>
@@ -10422,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10601,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>602.9445958447754</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,22 +10673,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
@@ -10841,10 +10843,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932207</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23267,16 +23269,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556931</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>172.2387417041109</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.86827275269491</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>55.87832135360783</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,10 +23509,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.8153550780014</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>192.0368560147847</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>190.928696464465</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>44.00051207685243</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>120.4463752142728</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>195.0325855607193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>128.4628789093285</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>26.33579611060398</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>208.2197249473485</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>44.28436272291688</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>135.3636110865067</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>73.62918697961811</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>69.71657238081424</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>237.2493379126147</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25789,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>120.446375214272</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>84.34995760698618</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>71.59449085350093</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26071,7 +26073,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>513189.1649123972</v>
+        <v>508200.5640893302</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>513189.1649123972</v>
+        <v>512428.0048970886</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>340350.3992745042</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340350.3992745042</v>
+        <v>514221.0116864708</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514221.0116864709</v>
+        <v>514221.011686471</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>514221.011686471</v>
+        <v>514221.0116864708</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514221.0116864709</v>
+        <v>514221.0116864708</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>340350.3992745043</v>
+        <v>514221.0116864708</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>340350.3992745043</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442321.5389095871</v>
+        <v>442321.5389095869</v>
       </c>
       <c r="C2" t="n">
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.538909587</v>
+        <v>442321.5389095871</v>
       </c>
       <c r="E2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="F2" t="n">
-        <v>287689.2477427711</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="G2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="I2" t="n">
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133155</v>
       </c>
       <c r="K2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="L2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="M2" t="n">
         <v>434657.5069133156</v>
@@ -26350,10 +26352,10 @@
         <v>434657.5069133156</v>
       </c>
       <c r="O2" t="n">
-        <v>287689.2477427713</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="P2" t="n">
-        <v>287689.2477427712</v>
+        <v>434657.5069133157</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501596</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998296</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.9966004562</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340822</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130757.3002320199</v>
+        <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>130757.3002320199</v>
+        <v>138489.2977955548</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>18323.41938979964</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>18323.41938979964</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020262</v>
@@ -26439,10 +26441,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>18323.4193897997</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800255</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13652.01553176461</v>
+        <v>59273.06365219254</v>
       </c>
       <c r="C6" t="n">
-        <v>237351.7141158094</v>
+        <v>165288.2594110137</v>
       </c>
       <c r="D6" t="n">
-        <v>237351.7141158094</v>
+        <v>225824.1185658266</v>
       </c>
       <c r="E6" t="n">
-        <v>216538.7680133644</v>
+        <v>146900.0803362706</v>
       </c>
       <c r="F6" t="n">
-        <v>226709.7646138205</v>
+        <v>329255.1895573205</v>
       </c>
       <c r="G6" t="n">
-        <v>171195.7126112113</v>
+        <v>329255.1895573206</v>
       </c>
       <c r="H6" t="n">
-        <v>329255.1895573205</v>
+        <v>329255.1895573206</v>
       </c>
       <c r="I6" t="n">
         <v>329255.1895573205</v>
       </c>
       <c r="J6" t="n">
-        <v>154603.8408396144</v>
+        <v>218240.7242123302</v>
       </c>
       <c r="K6" t="n">
-        <v>329255.1895573205</v>
+        <v>276209.3349185481</v>
       </c>
       <c r="L6" t="n">
-        <v>329255.1895573205</v>
+        <v>319862.887830698</v>
       </c>
       <c r="M6" t="n">
-        <v>320766.1078539796</v>
+        <v>177055.0186193328</v>
       </c>
       <c r="N6" t="n">
         <v>329255.1895573204</v>
       </c>
       <c r="O6" t="n">
-        <v>226709.7646138206</v>
+        <v>329255.1895573205</v>
       </c>
       <c r="P6" t="n">
-        <v>226709.7646138205</v>
+        <v>329255.1895573205</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186362</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>147.2153150401801</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,19 +27432,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>224.268804221327</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27534,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>57.89201108396685</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,16 +27596,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>11.92595336797501</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27679,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>256.0811030342888</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>98.25199374052994</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>52.01701577190843</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>215.4845050789321</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>187.708804878765</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28023,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>111.4236523045825</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>208.2197249473429</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.014815217499704e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28153,10 +28155,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28327,13 +28329,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.20193510316971e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28375,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-4.113950559524804e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28621,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28722,7 +28724,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.600072820089746e-12</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,16 +34710,16 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>540.0049805212334</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>203.2851159259061</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611007</v>
       </c>
       <c r="M5" t="n">
-        <v>469.6822035600077</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>630.404832368463</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>57.24134923374049</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377786</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35173,13 +35175,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,7 +35190,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35246,13 +35248,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.13097499434645</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>383.1431497629751</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>750.2469944428858</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>287.5759351912247</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>701.5799957097206</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,28 +35649,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>383.1431497629751</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>138.1004058270461</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35884,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820595</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35969,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>1024.042030119497</v>
       </c>
       <c r="P18" t="n">
-        <v>537.6417914809772</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,10 +36123,10 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>376.7818457160674</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36136,13 +36138,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767492</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>565.8642197954468</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
         <v>661.3192390158824</v>
@@ -36455,7 +36457,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
-        <v>263.087760665011</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36610,10 +36612,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36689,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638367</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
-        <v>164.4273484133669</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>167.2490741169777</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080367</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37002,7 +37004,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37066,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>662.0994432140315</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>170.862691669754</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>169.6543172077065</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37166,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>1005.515419242839</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37321,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>602.9445958447754</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37391,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N38" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>537.6417914809772</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097206</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>212.2804580932207</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097206</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158822</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37874,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37941,7 +37943,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5799957097206</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>212.2804580932207</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>110.0804674982792</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38178,7 +38180,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2005978.102929692</v>
+        <v>2005452.92056066</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216497</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916866</v>
+        <v>278692.0725916855</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>282.2216823531077</v>
+        <v>346.242267862116</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>110.1684126278033</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>26.37916934877022</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -873,16 +873,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>410.1106214120837</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -910,13 +910,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>414.4393739248217</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>65.96721912996259</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1074,7 +1074,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>19.62163748576155</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1113,13 +1113,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1135,25 +1135,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>213.9524923143556</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>238.1256450501459</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -1198,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1305,7 +1305,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>52.51170991984812</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1347,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1359,7 +1359,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>198.8096778684291</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1533,22 +1533,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>108.3408915168847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>111.7936689725562</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
         <v>275.6486707394257</v>
@@ -1621,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -1675,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633446</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1776,13 +1776,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>39.57637241135472</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2013,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978622</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>18.05677735225638</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>114.9577730479998</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561545</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2478,10 +2478,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>35.47248331510205</v>
+        <v>98.73120706589795</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978661</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2733,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430576</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>75.86622810092533</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2961,16 +2961,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>130.6556207749445</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,10 +3192,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>83.71046610478319</v>
       </c>
       <c r="E34" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>174.9399834978613</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3669,10 +3669,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>94.431236732152</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3915,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>18.05677735225719</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.05677735226156</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869773002</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>148.6041873872605</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>408.8145501306011</v>
+        <v>1167.069156190556</v>
       </c>
       <c r="C2" t="n">
-        <v>374.7124813544285</v>
+        <v>1132.967087414384</v>
       </c>
       <c r="D2" t="n">
-        <v>342.8431005692771</v>
+        <v>1101.097706629232</v>
       </c>
       <c r="E2" t="n">
-        <v>57.77069415199655</v>
+        <v>751.3580421220443</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1277.130531135514</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1612.716505715692</v>
       </c>
       <c r="X2" t="n">
-        <v>435.3194362350473</v>
+        <v>1597.614446335406</v>
       </c>
       <c r="Y2" t="n">
-        <v>431.0737165751048</v>
+        <v>1189.32832263506</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>705.2562847857771</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="C4" t="n">
-        <v>705.2562847857771</v>
+        <v>315.1272362302287</v>
       </c>
       <c r="D4" t="n">
-        <v>539.3782919872998</v>
+        <v>149.2492434317514</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>149.2492434317514</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>149.2492434317514</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4491,19 +4491,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1537.942061378414</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>1292.062614956869</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1005.1071068273</v>
       </c>
       <c r="W4" t="n">
-        <v>705.2562847857771</v>
+        <v>733.0807024135913</v>
       </c>
       <c r="X4" t="n">
-        <v>705.2562847857771</v>
+        <v>487.6889477470038</v>
       </c>
       <c r="Y4" t="n">
-        <v>705.2562847857771</v>
+        <v>487.6889477470038</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1379.443841960034</v>
+        <v>1267.592954512942</v>
       </c>
       <c r="C5" t="n">
-        <v>941.3013691434576</v>
+        <v>1233.490885736769</v>
       </c>
       <c r="D5" t="n">
-        <v>909.4319883583062</v>
+        <v>797.5811009112138</v>
       </c>
       <c r="E5" t="n">
-        <v>475.6572435166014</v>
+        <v>363.806356069509</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947704</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947704</v>
+        <v>50.84917596233704</v>
       </c>
       <c r="I5" t="n">
         <v>50.43238658947704</v>
@@ -4570,22 +4570,22 @@
         <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>557.7649106726439</v>
+        <v>1728.364480676017</v>
       </c>
       <c r="M5" t="n">
-        <v>557.7649106726439</v>
+        <v>1728.364480676017</v>
       </c>
       <c r="N5" t="n">
-        <v>557.7649106726439</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717422</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.9664787622</v>
+        <v>2352.465264720795</v>
       </c>
       <c r="Q5" t="n">
         <v>2352.465264720795</v>
@@ -4594,25 +4594,25 @@
         <v>2521.619329473852</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657689</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.900228530727</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="U5" t="n">
-        <v>2217.900228530727</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="V5" t="n">
-        <v>2217.900228530727</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="W5" t="n">
-        <v>2217.085177982165</v>
+        <v>2520.804278925289</v>
       </c>
       <c r="X5" t="n">
-        <v>1797.942714561475</v>
+        <v>2102.178648698196</v>
       </c>
       <c r="Y5" t="n">
-        <v>1793.696994901533</v>
+        <v>1693.89252499785</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>50.43238658947704</v>
       </c>
       <c r="I6" t="n">
-        <v>50.43238658947704</v>
+        <v>76.49605974993464</v>
       </c>
       <c r="J6" t="n">
-        <v>374.9907115556894</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>999.0914956004676</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>999.0914956004676</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>999.0914956004676</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>999.0914956004676</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>999.0914956004676</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1030.246109079611</v>
+        <v>1060.650433820237</v>
       </c>
       <c r="C7" t="n">
-        <v>857.6843975628359</v>
+        <v>888.0887223034623</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>722.210729504985</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>552.4527257557222</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985995</v>
+        <v>375.7456717174784</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>210.1543967433061</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>70.25222243368063</v>
       </c>
       <c r="I7" t="n">
         <v>50.43238658947704</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947704</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068779</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748389</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255752</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413396</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639178</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.42655460952</v>
+        <v>2498.899221627944</v>
       </c>
       <c r="Q7" t="n">
         <v>2521.619329473852</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179224</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.96013947722</v>
+        <v>2521.619329473852</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055676</v>
+        <v>2275.739883052307</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308781</v>
+        <v>1997.306882305412</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179211</v>
+        <v>1997.306882305412</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765503</v>
+        <v>1725.280477891704</v>
       </c>
       <c r="X7" t="n">
-        <v>1257.665779765503</v>
+        <v>1479.888723225116</v>
       </c>
       <c r="Y7" t="n">
-        <v>1030.246109079611</v>
+        <v>1252.469052539225</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1052.900668210748</v>
+        <v>793.6783655277644</v>
       </c>
       <c r="C8" t="n">
-        <v>1018.798599434575</v>
+        <v>355.5358927111877</v>
       </c>
       <c r="D8" t="n">
-        <v>986.9292186494238</v>
+        <v>323.6665119260363</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>293.9321711247355</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4810,7 +4810,7 @@
         <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
         <v>1293.567921177998</v>
@@ -4819,7 +4819,7 @@
         <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4837,19 +4837,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y8" t="n">
-        <v>1479.200238695656</v>
+        <v>1219.977936012672</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>959.897665623735</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817324</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832551</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>511.7125253339923</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>335.0054712957485</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
         <v>281.9633400635787</v>
@@ -4995,19 +4995,19 @@
         <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117495</v>
+        <v>959.897665623735</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
         <v>391.8077842004234</v>
@@ -5047,16 +5047,16 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>3654.644638328873</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
@@ -5083,10 +5083,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.216302815308</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>863.6545912985331</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>754.2193473420839</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E13" t="n">
-        <v>584.4613435928212</v>
+        <v>469.4349624223536</v>
       </c>
       <c r="F13" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G13" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2538.261260176947</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2259.828259430053</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.872751300483</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1700.846346886775</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.454592220187</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>1228.034921534295</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
         <v>391.8077842004234</v>
@@ -5287,7 +5287,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5323,7 +5323,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>809.0580335016147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>242.1630145804051</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5442,46 +5442,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745698</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5518,16 +5518,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5557,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>286.0912842876352</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>120.5000093134628</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2422.1422975022</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2143.709296755305</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1856.753788625736</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1584.727384212028</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1339.33562954544</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="20">
@@ -5740,49 +5740,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
         <v>4550.100609912873</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3365.117609755799</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>3192.555898239023</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>3026.677905440546</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>2856.919901691283</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>2680.21284765304</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>2514.621572678867</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>4867.162567117437</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>4588.729566370543</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>4301.774058240973</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>4029.747653827265</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>3784.355899160677</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>3556.936228474786</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5998,19 +5998,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3184.458419759167</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C25" t="n">
-        <v>3184.458419759167</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D25" t="n">
-        <v>3018.58042696069</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="E25" t="n">
-        <v>2848.822423211427</v>
+        <v>607.2585098297291</v>
       </c>
       <c r="F25" t="n">
-        <v>2672.115369173183</v>
+        <v>430.5514557914853</v>
       </c>
       <c r="G25" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U25" t="n">
-        <v>4408.070376373911</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V25" t="n">
-        <v>4121.114868244342</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W25" t="n">
-        <v>3849.088463830633</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X25" t="n">
-        <v>3603.696709164046</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y25" t="n">
-        <v>3376.277038478154</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="26">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882666</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365891</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674136</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181508</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6414,22 +6414,22 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2594.704009018975</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367841</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954132</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.557290287545</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601653</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="29">
@@ -6475,16 +6475,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>3572.656769371182</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903908</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736157</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751384</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258757</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8229638057298</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6627,46 +6627,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L31" t="n">
-        <v>881.8088617745614</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173575</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.04100375203</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005135</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.652494875566</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461857</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.23433579527</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109378</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L32" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M32" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N32" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O32" t="n">
-        <v>4115.578073952528</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>270.2186143064091</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H34" t="n">
         <v>190.9207894961043</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7180,10 +7180,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
         <v>2588.899621423627</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>356.5120644702766</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7411,37 +7411,37 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1632.322702740236</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7493,22 +7493,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
         <v>1648.327823655249</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7578,43 +7578,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O43" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q43" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S43" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7648,52 +7648,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>952.7568773477108</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="C46" t="n">
-        <v>780.1951658309357</v>
+        <v>832.0502353276421</v>
       </c>
       <c r="D46" t="n">
-        <v>614.3171730324584</v>
+        <v>666.1722425291648</v>
       </c>
       <c r="E46" t="n">
-        <v>444.5591692831957</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="F46" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7827,31 +7827,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878954</v>
       </c>
       <c r="S46" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176951</v>
       </c>
       <c r="T46" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755406</v>
       </c>
       <c r="U46" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008511</v>
       </c>
       <c r="V46" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878941</v>
       </c>
       <c r="W46" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.966900465233</v>
       </c>
       <c r="X46" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127537</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7990,19 +7990,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2851159259061</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8218,25 +8218,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611007</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8291,16 +8291,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>57.24134923374049</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8458,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8695,19 +8695,19 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>750.2469944428858</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8765,19 +8765,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9005,10 +9005,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>138.1004058270461</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,19 +9166,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,28 +9400,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>565.8642197954468</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10123,10 +10123,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>167.2490741169777</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -10363,16 +10363,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>662.0994432140315</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10594,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,13 +10828,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11156,10 +11156,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>55.87832135360783</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>63.14631452530512</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627218</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>120.4463752142728</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.4628789093294</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>128.4628789093285</v>
+        <v>65.20415515853266</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>208.2197249473485</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>44.28436272291688</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,10 +25080,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>80.50874676570933</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.62918697961811</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.446375214272</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>3.146865729420277</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>41.29624514453673</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.011686471</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>514221.011686471</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.0116864709</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>514221.0116864709</v>
+        <v>514221.011686471</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>514221.0116864709</v>
+        <v>514221.0116864708</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>514221.0116864708</v>
+        <v>514221.011686471</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>514221.0116864709</v>
+        <v>514221.011686471</v>
       </c>
     </row>
   </sheetData>
@@ -26319,16 +26319,16 @@
         <v>442321.538909587</v>
       </c>
       <c r="D2" t="n">
-        <v>442321.5389095871</v>
+        <v>442321.538909587</v>
       </c>
       <c r="E2" t="n">
+        <v>434657.5069133158</v>
+      </c>
+      <c r="F2" t="n">
+        <v>434657.5069133158</v>
+      </c>
+      <c r="G2" t="n">
         <v>434657.5069133156</v>
-      </c>
-      <c r="F2" t="n">
-        <v>434657.5069133157</v>
-      </c>
-      <c r="G2" t="n">
-        <v>434657.5069133157</v>
       </c>
       <c r="H2" t="n">
         <v>434657.5069133157</v>
@@ -26337,25 +26337,25 @@
         <v>434657.5069133157</v>
       </c>
       <c r="J2" t="n">
-        <v>434657.5069133155</v>
+        <v>434657.5069133156</v>
       </c>
       <c r="K2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="L2" t="n">
         <v>434657.5069133156</v>
       </c>
       <c r="M2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="N2" t="n">
-        <v>434657.5069133156</v>
+        <v>434657.5069133157</v>
       </c>
       <c r="O2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133158</v>
       </c>
       <c r="P2" t="n">
-        <v>434657.5069133157</v>
+        <v>434657.5069133158</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>9392.301726622472</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,22 +26429,22 @@
         <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
+        <v>27684.07875020269</v>
+      </c>
+      <c r="G4" t="n">
         <v>27684.07875020268</v>
       </c>
-      <c r="G4" t="n">
-        <v>27684.07875020262</v>
-      </c>
       <c r="H4" t="n">
-        <v>27684.07875020263</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020261</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020261</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
@@ -26459,7 +26459,7 @@
         <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020269</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26527,43 +26527,43 @@
         <v>165288.2594110137</v>
       </c>
       <c r="D6" t="n">
-        <v>225824.1185658266</v>
+        <v>225824.1185658264</v>
       </c>
       <c r="E6" t="n">
-        <v>146900.0803362706</v>
+        <v>146876.8559968882</v>
       </c>
       <c r="F6" t="n">
-        <v>329255.1895573205</v>
+        <v>329231.9652179379</v>
       </c>
       <c r="G6" t="n">
-        <v>329255.1895573206</v>
+        <v>329231.9652179377</v>
       </c>
       <c r="H6" t="n">
-        <v>329255.1895573206</v>
+        <v>329231.9652179379</v>
       </c>
       <c r="I6" t="n">
-        <v>329255.1895573205</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="J6" t="n">
-        <v>218240.7242123302</v>
+        <v>218217.4998729476</v>
       </c>
       <c r="K6" t="n">
-        <v>276209.3349185481</v>
+        <v>276186.1105791655</v>
       </c>
       <c r="L6" t="n">
-        <v>319862.887830698</v>
+        <v>319839.6634913153</v>
       </c>
       <c r="M6" t="n">
-        <v>177055.0186193328</v>
+        <v>177031.7942799502</v>
       </c>
       <c r="N6" t="n">
-        <v>329255.1895573204</v>
+        <v>329231.9652179378</v>
       </c>
       <c r="O6" t="n">
-        <v>329255.1895573205</v>
+        <v>329231.9652179379</v>
       </c>
       <c r="P6" t="n">
-        <v>329255.1895573205</v>
+        <v>329231.9652179379</v>
       </c>
     </row>
   </sheetData>
@@ -27044,7 +27044,7 @@
         <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>147.2153150401801</v>
+        <v>83.19472953117179</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>57.89201108396685</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>137.5561928756604</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27593,16 +27593,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11.92595336797501</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27681,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.5116648616607335</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>98.25199374052994</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>68.15171224730986</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>215.4845050789321</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>111.4236523045825</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28067,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>26.3357961106037</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -30516,7 +30516,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30650,7 +30650,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30756,7 +30756,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-2.779647469158316e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30899,7 +30899,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,19 +34774,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>203.2851159259061</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="L5" t="n">
-        <v>72.80589558611007</v>
+        <v>624.8248713018625</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="O5" t="n">
-        <v>630.404832368463</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684628</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684628</v>
+        <v>630.4048323684631</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741958</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>57.24134923374049</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377786</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>22.94960388475511</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35178,19 +35178,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="M8" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,10 +35269,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35415,19 +35415,19 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>750.2469944428858</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35506,13 +35506,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35725,10 +35725,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>138.1004058270461</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080452</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35886,19 +35886,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>756.3484258820595</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>508.6956131767492</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36293,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,22 +36366,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>565.8642197954468</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,16 +36670,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -36691,13 +36691,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36843,10 +36843,10 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
-        <v>167.2490741169777</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458546</v>
@@ -36855,7 +36855,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080367</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37004,7 +37004,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
         <v>351.017064616507</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
@@ -37083,16 +37083,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>662.0994432140315</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>169.6543172077065</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1005.515419242839</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37548,13 +37548,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>92.22506899525706</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37636,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37779,19 +37779,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>702.7389601124028</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37876,10 +37876,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>519.9105708963857</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37946,13 +37946,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645625</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>110.0804674982792</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38195,7 +38195,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821571</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
